--- a/Relatórios/tManual/Execução_Testes_OrangeHRM_Demo.xlsx
+++ b/Relatórios/tManual/Execução_Testes_OrangeHRM_Demo.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="8880"/>
+    <workbookView windowWidth="21600" windowHeight="8880" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Testes" sheetId="1" r:id="rId1"/>
     <sheet name="Bugs" sheetId="2" r:id="rId2"/>
+    <sheet name="Matriz de Rastreabilidade" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint3" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="394">
   <si>
     <t>Revisão:</t>
   </si>
@@ -90,7 +95,7 @@
     <t>Descrição do Caso de Teste</t>
   </si>
   <si>
-    <t>Severidade</t>
+    <t>Prioridade</t>
   </si>
   <si>
     <t>Passos de Execução</t>
@@ -316,6 +321,9 @@
     <t>Alteração salva</t>
   </si>
   <si>
+    <t>https://jam.dev/c/f4fd8f40-33ef-4b76-8737-7b7eab8f6dd4</t>
+  </si>
+  <si>
     <t>CT-RF03-04</t>
   </si>
   <si>
@@ -328,6 +336,9 @@
     <t>Funcionário removido da lista</t>
   </si>
   <si>
+    <t>https://jam.dev/c/ad3ff8e8-677b-490c-809c-753cd38269d9</t>
+  </si>
+  <si>
     <t>CT-RF04-01</t>
   </si>
   <si>
@@ -517,7 +528,7 @@
     <t>Descrição do Bug</t>
   </si>
   <si>
-    <t>Prioridade</t>
+    <t>Severidade</t>
   </si>
   <si>
     <t>Passos para reproduzir</t>
@@ -551,6 +562,666 @@
   </si>
   <si>
     <t>Mensagem “Invalid credentials” em vermelho + opção “Mostrar senha” (ícone de olho) disponível.</t>
+  </si>
+  <si>
+    <t>📊 Matriz de Rastreabilidade de Testes – OrangeHRM</t>
+  </si>
+  <si>
+    <t>📌 Objetivo</t>
+  </si>
+  <si>
+    <t>Garantir que todos os requisitos do sistema OrangeHRM estejam cobertos por cenários e casos de teste, permitindo:</t>
+  </si>
+  <si>
+    <t>Controle de cobertura</t>
+  </si>
+  <si>
+    <t>Identificação de gaps</t>
+  </si>
+  <si>
+    <t>Apoio à regressão</t>
+  </si>
+  <si>
+    <t>Base para automação</t>
+  </si>
+  <si>
+    <t>📄 Legenda</t>
+  </si>
+  <si>
+    <t>REQ → Requisito</t>
+  </si>
+  <si>
+    <t>CT → Caso de Teste</t>
+  </si>
+  <si>
+    <t>BDD → Cenário Gherkin</t>
+  </si>
+  <si>
+    <t>Tipo → Funcional / Segurança / Usabilidade</t>
+  </si>
+  <si>
+    <t>Prioridade → Alta / Média / Baixa</t>
+  </si>
+  <si>
+    <t>Status → Planejado / Executado / Automatizado</t>
+  </si>
+  <si>
+    <t>🧩 MATRIZ DE RASTREABILIDADE</t>
+  </si>
+  <si>
+    <t>ID Req</t>
+  </si>
+  <si>
+    <t>Módulo</t>
+  </si>
+  <si>
+    <t>Descrição do Requisito</t>
+  </si>
+  <si>
+    <t>Cenário</t>
+  </si>
+  <si>
+    <t>Caso de Teste</t>
+  </si>
+  <si>
+    <t>BDD</t>
+  </si>
+  <si>
+    <t>Tipo de Teste</t>
+  </si>
+  <si>
+    <t>REQ-01</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Permitir login com credenciais válidas</t>
+  </si>
+  <si>
+    <t>Login válido</t>
+  </si>
+  <si>
+    <t>CT-LOGIN-01</t>
+  </si>
+  <si>
+    <t>SC-LOGIN-01</t>
+  </si>
+  <si>
+    <t>Funcional</t>
+  </si>
+  <si>
+    <t>Planejado</t>
+  </si>
+  <si>
+    <t>REQ-02</t>
+  </si>
+  <si>
+    <t>Bloquear login com senha inválida</t>
+  </si>
+  <si>
+    <t>Login inválido</t>
+  </si>
+  <si>
+    <t>CT-LOGIN-02</t>
+  </si>
+  <si>
+    <t>SC-LOGIN-02</t>
+  </si>
+  <si>
+    <t>REQ-03</t>
+  </si>
+  <si>
+    <t>Exibir mensagem de erro para credenciais inválidas</t>
+  </si>
+  <si>
+    <t>Mensagem de erro</t>
+  </si>
+  <si>
+    <t>CT-LOGIN-03</t>
+  </si>
+  <si>
+    <t>SC-LOGIN-03</t>
+  </si>
+  <si>
+    <t>Usabilidade</t>
+  </si>
+  <si>
+    <t>REQ-04</t>
+  </si>
+  <si>
+    <t>Encerrar sessão corretamente</t>
+  </si>
+  <si>
+    <t>CT-LOGIN-04</t>
+  </si>
+  <si>
+    <t>SC-LOGIN-04</t>
+  </si>
+  <si>
+    <t>REQ-05</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Exibir painel após login</t>
+  </si>
+  <si>
+    <t>Visualizar dashboard</t>
+  </si>
+  <si>
+    <t>CT-DASH-01</t>
+  </si>
+  <si>
+    <t>SC-DASH-01</t>
+  </si>
+  <si>
+    <t>REQ-06</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Cadastro de usuário</t>
+  </si>
+  <si>
+    <t>CT-ADM-01</t>
+  </si>
+  <si>
+    <t>SC-ADM-01</t>
+  </si>
+  <si>
+    <t>REQ-07</t>
+  </si>
+  <si>
+    <t>Editar usuário existente</t>
+  </si>
+  <si>
+    <t>Edição de usuário</t>
+  </si>
+  <si>
+    <t>CT-ADM-02</t>
+  </si>
+  <si>
+    <t>SC-ADM-02</t>
+  </si>
+  <si>
+    <t>REQ-08</t>
+  </si>
+  <si>
+    <t>Excluir usuário</t>
+  </si>
+  <si>
+    <t>Exclusão de usuário</t>
+  </si>
+  <si>
+    <t>CT-ADM-03</t>
+  </si>
+  <si>
+    <t>SC-ADM-03</t>
+  </si>
+  <si>
+    <t>REQ-09</t>
+  </si>
+  <si>
+    <t>Restringir acesso por perfil</t>
+  </si>
+  <si>
+    <t>Permissões</t>
+  </si>
+  <si>
+    <t>CT-ADM-04</t>
+  </si>
+  <si>
+    <t>SC-ADM-04</t>
+  </si>
+  <si>
+    <t>Segurança</t>
+  </si>
+  <si>
+    <t>REQ-10</t>
+  </si>
+  <si>
+    <t>PIM</t>
+  </si>
+  <si>
+    <t>Cadastrar funcionário</t>
+  </si>
+  <si>
+    <t>Novo funcionário</t>
+  </si>
+  <si>
+    <t>CT-PIM-01</t>
+  </si>
+  <si>
+    <t>SC-PIM-01</t>
+  </si>
+  <si>
+    <t>REQ-11</t>
+  </si>
+  <si>
+    <t>Validar campos obrigatórios</t>
+  </si>
+  <si>
+    <t>Validação de campos</t>
+  </si>
+  <si>
+    <t>CT-PIM-02</t>
+  </si>
+  <si>
+    <t>SC-PIM-02</t>
+  </si>
+  <si>
+    <t>REQ-12</t>
+  </si>
+  <si>
+    <t>Editar dados do funcionário</t>
+  </si>
+  <si>
+    <t>Atualização de dados</t>
+  </si>
+  <si>
+    <t>CT-PIM-03</t>
+  </si>
+  <si>
+    <t>SC-PIM-03</t>
+  </si>
+  <si>
+    <t>REQ-13</t>
+  </si>
+  <si>
+    <t>Leave</t>
+  </si>
+  <si>
+    <t>Solicitar licença</t>
+  </si>
+  <si>
+    <t>Solicitação de leave</t>
+  </si>
+  <si>
+    <t>CT-LEV-01</t>
+  </si>
+  <si>
+    <t>SC-LEV-01</t>
+  </si>
+  <si>
+    <t>REQ-14</t>
+  </si>
+  <si>
+    <t>Aprovar licença</t>
+  </si>
+  <si>
+    <t>Aprovação de leave</t>
+  </si>
+  <si>
+    <t>CT-LEV-02</t>
+  </si>
+  <si>
+    <t>SC-LEV-02</t>
+  </si>
+  <si>
+    <t>REQ-15</t>
+  </si>
+  <si>
+    <t>Rejeitar licença</t>
+  </si>
+  <si>
+    <t>Rejeição de leave</t>
+  </si>
+  <si>
+    <t>CT-LEV-03</t>
+  </si>
+  <si>
+    <t>SC-LEV-03</t>
+  </si>
+  <si>
+    <t>REQ-16</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Registrar horas</t>
+  </si>
+  <si>
+    <t>Timesheet</t>
+  </si>
+  <si>
+    <t>CT-TIME-01</t>
+  </si>
+  <si>
+    <t>SC-TIME-01</t>
+  </si>
+  <si>
+    <t>REQ-17</t>
+  </si>
+  <si>
+    <t>Recruitment</t>
+  </si>
+  <si>
+    <t>Cadastrar candidato</t>
+  </si>
+  <si>
+    <t>Novo candidato</t>
+  </si>
+  <si>
+    <t>CT-REC-01</t>
+  </si>
+  <si>
+    <t>SC-REC-01</t>
+  </si>
+  <si>
+    <t>REQ-18</t>
+  </si>
+  <si>
+    <t>Alterar status do candidato</t>
+  </si>
+  <si>
+    <t>Processo seletivo</t>
+  </si>
+  <si>
+    <t>CT-REC-02</t>
+  </si>
+  <si>
+    <t>SC-REC-02</t>
+  </si>
+  <si>
+    <t>REQ-19</t>
+  </si>
+  <si>
+    <t>My Info</t>
+  </si>
+  <si>
+    <t>Visualizar dados pessoais</t>
+  </si>
+  <si>
+    <t>Dados do usuário</t>
+  </si>
+  <si>
+    <t>CT-MY-01</t>
+  </si>
+  <si>
+    <t>SC-MY-01</t>
+  </si>
+  <si>
+    <t>REQ-20</t>
+  </si>
+  <si>
+    <t>Editar dados pessoais</t>
+  </si>
+  <si>
+    <t>Atualização de perfil</t>
+  </si>
+  <si>
+    <t>CT-MY-02</t>
+  </si>
+  <si>
+    <t>SC-MY-02</t>
+  </si>
+  <si>
+    <t>REQ-21</t>
+  </si>
+  <si>
+    <t>Impedir acesso não autorizado</t>
+  </si>
+  <si>
+    <t>Controle de sessão</t>
+  </si>
+  <si>
+    <t>CT-SEC-01</t>
+  </si>
+  <si>
+    <t>SC-SEC-01</t>
+  </si>
+  <si>
+    <t>REQ-22</t>
+  </si>
+  <si>
+    <t>Mensagens claras ao usuário</t>
+  </si>
+  <si>
+    <t>Feedback visual</t>
+  </si>
+  <si>
+    <t>CT-SEC-02</t>
+  </si>
+  <si>
+    <t>SC-USA-01</t>
+  </si>
+  <si>
+    <t>📊 Matriz de Rastreabilidade por Sprint – OrangeHRM</t>
+  </si>
+  <si>
+    <t>🏁 Sprint 1:</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>Autenticação e Acesso ao Sistema</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Base da Automação (Smoke + Críticos)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetivos: </t>
+  </si>
+  <si>
+    <t>Garantir acesso seguro e estável ao sistema</t>
+  </si>
+  <si>
+    <t>Garantir que o sistema “suba” e funcione</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Login com credenciais válidas</t>
+  </si>
+  <si>
+    <t>Bloquear login inválido</t>
+  </si>
+  <si>
+    <t>Exibir mensagens de erro</t>
+  </si>
+  <si>
+    <t>Logout seguro</t>
+  </si>
+  <si>
+    <t>Exibir dashboard</t>
+  </si>
+  <si>
+    <t>Automatizar?</t>
+  </si>
+  <si>
+    <t>Justificativa</t>
+  </si>
+  <si>
+    <t>Login com sucesso</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>✅ Sim</t>
+  </si>
+  <si>
+    <t>Base para todos os testes</t>
+  </si>
+  <si>
+    <t>Regressão</t>
+  </si>
+  <si>
+    <t>Alta recorrência</t>
+  </si>
+  <si>
+    <t>Valida sistema ativo</t>
+  </si>
+  <si>
+    <t>Sessão expirada</t>
+  </si>
+  <si>
+    <t>❌ Não</t>
+  </si>
+  <si>
+    <t>Instável para automação inicial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🏁 Sprint 2 </t>
+  </si>
+  <si>
+    <t>Administração e Gestão de Usuários</t>
+  </si>
+  <si>
+    <t>Gestão de Usuários e Permissões</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objetivo: </t>
+  </si>
+  <si>
+    <t>Gerenciar usuários, perfis e permissões</t>
+  </si>
+  <si>
+    <t>Automatizar regras críticas de administração</t>
+  </si>
+  <si>
+    <t>Criar usuário</t>
+  </si>
+  <si>
+    <t>Editar usuário</t>
+  </si>
+  <si>
+    <t>Controle de permissões</t>
+  </si>
+  <si>
+    <t>Feedback ao usuário</t>
+  </si>
+  <si>
+    <t>CT-USA-01</t>
+  </si>
+  <si>
+    <t>Fluxo recorrente</t>
+  </si>
+  <si>
+    <t>Impacto alto</t>
+  </si>
+  <si>
+    <t>⚠️ Parcial</t>
+  </si>
+  <si>
+    <t>Dependente de dados</t>
+  </si>
+  <si>
+    <t>Complexo / exploratório</t>
+  </si>
+  <si>
+    <t>Mensagens de feedback</t>
+  </si>
+  <si>
+    <t>Avaliação visual</t>
+  </si>
+  <si>
+    <t>🏁 Sprint 3</t>
+  </si>
+  <si>
+    <t>Gestão de Funcionários e Processos de RH</t>
+  </si>
+  <si>
+    <t>Processos de RH (Core Business)</t>
+  </si>
+  <si>
+    <t>Objetivos:</t>
+  </si>
+  <si>
+    <t>Manter dados de colaboradores e processos principais de RH</t>
+  </si>
+  <si>
+    <t>Automatizar fluxos principais do negócio</t>
+  </si>
+  <si>
+    <t>Aprovar / rejeitar licença</t>
+  </si>
+  <si>
+    <t>Core do sistema</t>
+  </si>
+  <si>
+    <t>Regras estáveis</t>
+  </si>
+  <si>
+    <t>Fluxo crítico</t>
+  </si>
+  <si>
+    <t>Dependente de perfil</t>
+  </si>
+  <si>
+    <t>Baixa recorrência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">🏁 Sprint 4 </t>
+  </si>
+  <si>
+    <t>Processos Avançados, Segurança e Regressão</t>
+  </si>
+  <si>
+    <t>Regressão Completa e Fluxos Fim a Fim</t>
+  </si>
+  <si>
+    <t>Validar fluxos completos e estabilidade do sistema</t>
+  </si>
+  <si>
+    <t>Garantir estabilidade antes de release</t>
+  </si>
+  <si>
+    <t>Regressão geral do sistema</t>
+  </si>
+  <si>
+    <t>CT-REG-01</t>
+  </si>
+  <si>
+    <t>SC-REG-01</t>
+  </si>
+  <si>
+    <t>Acesso não autorizado</t>
+  </si>
+  <si>
+    <t>SC-SEC-02</t>
+  </si>
+  <si>
+    <t>Fluxo repetitivo</t>
+  </si>
+  <si>
+    <t>Fluxo estável</t>
+  </si>
+  <si>
+    <t>Alterar status candidato</t>
+  </si>
+  <si>
+    <t>Muitos estados</t>
+  </si>
+  <si>
+    <t>Alta execução</t>
+  </si>
+  <si>
+    <t>Sistema</t>
+  </si>
+  <si>
+    <t>Fluxo E2E RH</t>
+  </si>
+  <si>
+    <t>SC-E2E-01</t>
+  </si>
+  <si>
+    <t>E2E</t>
+  </si>
+  <si>
+    <t>Alto custo de manutenção</t>
   </si>
 </sst>
 </file>
@@ -572,6 +1243,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -582,14 +1261,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -965,12 +1636,57 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1113,11 +1829,11 @@
     <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1129,34 +1845,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1241,14 +1957,69 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1261,16 +2032,16 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1282,7 +2053,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1291,10 +2062,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1303,7 +2074,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1315,9 +2086,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1330,7 +2098,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -1339,11 +2107,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1637,13 +2405,13 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3" c:formatCode="0%">
-                  <c:v>34.78</c:v>
+                  <c:v>43.48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,19 +3360,19 @@
   <sheetPr/>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:J10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="13.1428571428571" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1428571428571" style="21" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="12.5714285714286" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.5714285714286" style="21" customWidth="1"/>
     <col min="6" max="6" width="39.5714285714286" customWidth="1"/>
-    <col min="7" max="7" width="26.7142857142857" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.4285714285714" style="2" customWidth="1"/>
+    <col min="7" max="7" width="26.7142857142857" style="21" customWidth="1"/>
+    <col min="8" max="8" width="21.4285714285714" style="21" customWidth="1"/>
     <col min="9" max="9" width="35.4285714285714" customWidth="1"/>
     <col min="10" max="10" width="36" customWidth="1"/>
     <col min="11" max="11" width="41.1428571428571" customWidth="1"/>
@@ -2612,818 +3380,826 @@
   </cols>
   <sheetData>
     <row r="1" spans="9:10">
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="9:10">
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="21">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="9:10">
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="9:10">
+      <c r="I4" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="9:10">
+      <c r="I5" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="47">
+        <f>ROUND((J3/J2)*100,2)</f>
+        <v>43.48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="38">
+        <v>46002</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="H6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="21"/>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" s="22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="9:10">
-      <c r="I4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="9:10">
-      <c r="I5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="29">
-        <f>ROUND((J3/J2)*100,2)</f>
-        <v>34.78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="19">
-        <v>46002</v>
-      </c>
-      <c r="F6" s="20"/>
-      <c r="H6" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
+      <c r="B11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
     </row>
     <row r="12" ht="23.25" spans="2:12">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="2:12">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="29" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" ht="100.5" customHeight="1" spans="1:12">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="I14" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="K14" s="22" t="s">
+      <c r="K14" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="41" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" ht="90" spans="1:12">
-      <c r="A15" s="25"/>
-      <c r="B15" s="15" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="32" t="s">
+      <c r="K15" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="15" t="s">
+      <c r="L15" s="34" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="16" ht="30" spans="1:12">
-      <c r="A16" s="25"/>
-      <c r="B16" s="27" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="D16" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="G16" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I16" s="33" t="s">
+      <c r="I16" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="27"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" ht="45" spans="1:10">
-      <c r="A17" s="25"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="15"/>
+      <c r="J17" s="34"/>
     </row>
     <row r="18" ht="30" spans="1:12">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="28" t="s">
+      <c r="G18" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" ht="84" customHeight="1" spans="1:10">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="34" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" ht="81" customHeight="1" spans="1:12">
-      <c r="A20" s="25"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="28" t="s">
+      <c r="G20" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="33" t="s">
+      <c r="I20" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
     </row>
     <row r="21" ht="30" spans="1:10">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="15"/>
+      <c r="J21" s="34"/>
     </row>
     <row r="22" ht="30" spans="1:12">
-      <c r="A22" s="25"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="40"/>
+      <c r="B22" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="G22" s="28" t="s">
+      <c r="G22" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="I22" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="J22" s="27"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
     </row>
     <row r="23" ht="30" spans="1:10">
-      <c r="A23" s="25"/>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="40"/>
+      <c r="B23" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="H23" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" ht="30" spans="1:12">
-      <c r="A24" s="25"/>
-      <c r="B24" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" s="28" t="s">
+      <c r="A24" s="40"/>
+      <c r="B24" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="D24" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="G24" s="28" t="s">
+      <c r="F24" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
+      <c r="G24" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="I24" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="45"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
     </row>
     <row r="25" ht="30" spans="2:10">
-      <c r="B25" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="B25" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="C25" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="35"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+    </row>
+    <row r="26" ht="30" spans="2:12">
+      <c r="B26" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-    </row>
-    <row r="26" ht="30" spans="2:12">
-      <c r="B26" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="E26" s="28" t="s">
+      <c r="D26" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
+      <c r="F26" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H26" s="35"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
     </row>
     <row r="27" ht="30" spans="2:10">
-      <c r="B27" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="16" t="s">
+      <c r="B27" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="F27" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="35"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
     </row>
     <row r="28" ht="30" spans="2:12">
-      <c r="B28" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D28" s="27" t="s">
+      <c r="B28" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="C28" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E28" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="35"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="16" t="s">
+      <c r="D29" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="E29" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="F29" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="G29" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
     </row>
     <row r="30" ht="30" spans="2:10">
-      <c r="B30" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="15" t="s">
+      <c r="B30" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="C30" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="F30" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H30" s="35"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
     </row>
     <row r="31" ht="30" spans="2:10">
-      <c r="B31" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="15" t="s">
+      <c r="B31" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="C31" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+    </row>
+    <row r="32" ht="30" spans="2:10">
+      <c r="B32" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C32" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" ht="30" spans="2:10">
-      <c r="B32" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="16" t="s">
+      <c r="D32" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="F32" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="35"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" ht="30" spans="2:10">
-      <c r="B33" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="D33" s="15" t="s">
+      <c r="B33" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="C33" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G33" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="F33" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="H33" s="35"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
     </row>
     <row r="34" ht="30" spans="2:10">
-      <c r="B34" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="B34" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="C34" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="D34" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="E34" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="F34" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34" s="35"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
     </row>
     <row r="35" ht="30" spans="2:10">
-      <c r="B35" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="15" t="s">
+      <c r="B35" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="F35" s="15" t="s">
+      <c r="C35" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="D35" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
+      <c r="E35" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="35"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
     </row>
     <row r="36" ht="30" spans="2:10">
-      <c r="B36" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="15" t="s">
+      <c r="B36" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="16" t="s">
+      <c r="C36" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F36" s="15" t="s">
+      <c r="F36" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="H36" s="35"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+    </row>
+    <row r="37" ht="30" spans="2:10">
+      <c r="B37" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="G36" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-    </row>
-    <row r="37" ht="30" spans="2:10">
-      <c r="B37" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E37" s="16" t="s">
+      <c r="D37" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H37" s="16"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="F37" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="35"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -3454,6 +4230,8 @@
     <hyperlink ref="I20" r:id="rId9" display="https://jam.dev/c/6d095a56-06cd-425a-815c-efe92fb9b64d"/>
     <hyperlink ref="I21" r:id="rId10" display="https://jam.dev/c/ec635704-033a-44a7-a022-3fe7152e2918"/>
     <hyperlink ref="I22" r:id="rId11" display="https://jam.dev/c/10a3212a-1e07-429a-bd99-eaff4f6d605a"/>
+    <hyperlink ref="I23" r:id="rId12" display="https://jam.dev/c/f4fd8f40-33ef-4b76-8737-7b7eab8f6dd4"/>
+    <hyperlink ref="I24" r:id="rId13" display="https://jam.dev/c/ad3ff8e8-677b-490c-809c-753cd38269d9"/>
   </hyperlinks>
   <pageMargins left="0.511811023622047" right="0.511811023622047" top="0.78740157480315" bottom="0.78740157480315" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" scale="45" orientation="landscape"/>
@@ -3478,194 +4256,194 @@
     <col min="4" max="4" width="12.5714285714286" customWidth="1"/>
     <col min="5" max="5" width="13.2857142857143" customWidth="1"/>
     <col min="6" max="6" width="27.2857142857143" customWidth="1"/>
-    <col min="7" max="7" width="24.8571428571429" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.8571428571429" style="20" customWidth="1"/>
     <col min="8" max="8" width="52.7142857142857" customWidth="1"/>
-    <col min="9" max="9" width="25.8571428571429" style="2" customWidth="1"/>
-    <col min="10" max="10" width="42.2857142857143" style="2" customWidth="1"/>
+    <col min="9" max="9" width="25.8571428571429" style="21" customWidth="1"/>
+    <col min="10" max="10" width="42.2857142857143" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25">
         <v>46002</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="18"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" ht="40.5" customHeight="1" spans="1:10">
-      <c r="A6" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
+      <c r="A6" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" ht="30" spans="1:10">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" ht="85.5" customHeight="1" spans="1:10">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="H8" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>169</v>
+      <c r="I8" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" ht="108" customHeight="1" spans="1:10">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="35" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3691,4 +4469,2564 @@
   <pageSetup paperSize="9" scale="51" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.1428571428571" style="9" customWidth="1"/>
+    <col min="3" max="3" width="26.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="22.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="17.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.8571428571429" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.1428571428571" style="15" customWidth="1"/>
+    <col min="9" max="9" width="15.5714285714286" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="15">
+        <v>1</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="15">
+        <v>2</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="15">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="15">
+        <v>1</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="15">
+        <v>3</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="15">
+        <v>4</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="15">
+        <v>5</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="15">
+        <v>6</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:9">
+      <c r="A21" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" ht="15.75" spans="1:9">
+      <c r="A22" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" ht="30" customHeight="1" spans="1:9">
+      <c r="A23" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:9">
+      <c r="A24" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" ht="36" customHeight="1" spans="1:9">
+      <c r="A25" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" ht="30" spans="1:9">
+      <c r="A26" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" ht="30" spans="1:9">
+      <c r="A43" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A21:I21"/>
+  </mergeCells>
+  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="17.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="15.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="24.5714285714286" style="15" customWidth="1"/>
+    <col min="8" max="8" width="14.8571428571429" style="15" customWidth="1"/>
+    <col min="9" max="9" width="13" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="16"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75"/>
+    <row r="11" ht="15.75" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="38" customHeight="1" spans="1:9">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:9">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75"/>
+    <row r="20" ht="15.75" spans="1:9">
+      <c r="A20" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="5">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="5">
+        <v>1</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" ht="30" spans="1:9">
+      <c r="A25" s="5">
+        <v>1</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="13.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="25.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="19.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="14.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="25.7142857142857" customWidth="1"/>
+    <col min="8" max="8" width="13.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="14.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:9">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:9">
+      <c r="A13" s="5">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:9">
+      <c r="A14" s="5">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:9">
+      <c r="A15" s="5">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="5">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" ht="30" spans="1:7">
+      <c r="A23" s="5">
+        <v>2</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" ht="30" spans="1:7">
+      <c r="A24" s="5">
+        <v>2</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="11.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="23.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="17.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="16.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="14.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="18.4285714285714" customWidth="1"/>
+    <col min="8" max="8" width="13.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="10.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" ht="15.75" spans="1:9">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" ht="15.75" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:9">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:9">
+      <c r="A13" s="5">
+        <v>3</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:9">
+      <c r="A14" s="5">
+        <v>3</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5">
+        <v>3</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" ht="30" spans="1:9">
+      <c r="A16" s="5">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5">
+        <v>3</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" ht="30" spans="1:9">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B9:I9"/>
+  </mergeCells>
+  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="19.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="15.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="19.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="14.7142857142857" customWidth="1"/>
+    <col min="9" max="9" width="12.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75"/>
+    <row r="11" ht="15.75" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="30" spans="1:9">
+      <c r="A12" s="5">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" ht="30" spans="1:9">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" ht="30" spans="1:9">
+      <c r="A14" s="5">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" ht="30" spans="1:9">
+      <c r="A15" s="5">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" ht="45" spans="1:9">
+      <c r="A16" s="5">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" ht="30" spans="1:9">
+      <c r="A17" s="5">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75"/>
+    <row r="19" ht="15.75" spans="1:9">
+      <c r="A19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="5">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="5">
+        <v>4</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" ht="30" spans="1:9">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" ht="30" spans="1:9">
+      <c r="A23" s="5">
+        <v>4</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" ht="30" spans="1:9">
+      <c r="A24" s="5">
+        <v>4</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.751388888888889" right="0.751388888888889" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="600"/>
+  <headerFooter/>
+</worksheet>
 </file>